--- a/src/main/resources/file/english.xlsx
+++ b/src/main/resources/file/english.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>번호</t>
   </si>
@@ -127,6 +127,105 @@
   </si>
   <si>
     <t>내 인생에 최고의 날이야!</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>I don’t mind</t>
+  </si>
+  <si>
+    <t>난 신경쓰지 않아요</t>
+  </si>
+  <si>
+    <t>Let me check</t>
+  </si>
+  <si>
+    <t>한번 봅시다</t>
+  </si>
+  <si>
+    <t>Just a moment</t>
+  </si>
+  <si>
+    <t>잠시만요</t>
+  </si>
+  <si>
+    <t>It’s too late</t>
+  </si>
+  <si>
+    <t>너무 늦어요</t>
+  </si>
+  <si>
+    <t>Should I wait?</t>
+  </si>
+  <si>
+    <t>기다릴까요?</t>
+  </si>
+  <si>
+    <t>Are you afraid?</t>
+  </si>
+  <si>
+    <t>무서우신가요?</t>
+  </si>
+  <si>
+    <t>Is that enough?</t>
+  </si>
+  <si>
+    <t>충분한가요?</t>
+  </si>
+  <si>
+    <t>That’s too bad</t>
+  </si>
+  <si>
+    <t>안되었어요</t>
+  </si>
+  <si>
+    <t>Is it possible?</t>
+  </si>
+  <si>
+    <t>가능한가요?</t>
+  </si>
+  <si>
+    <t>That’s not fair</t>
+  </si>
+  <si>
+    <t>그건 공평하지않아요</t>
+  </si>
+  <si>
+    <t>It’s over there</t>
+  </si>
+  <si>
+    <t>저기에 있어요</t>
+  </si>
+  <si>
+    <t>Is the bank far?</t>
+  </si>
+  <si>
+    <t>은행이 먼가요?</t>
+  </si>
+  <si>
+    <t>She’s an expert</t>
+  </si>
+  <si>
+    <t>그녀는 전문가입니다</t>
+  </si>
+  <si>
+    <t>See you tonight</t>
+  </si>
+  <si>
+    <t>오늘 저녁에 봬요</t>
+  </si>
+  <si>
+    <t>Can I try it on?</t>
+  </si>
+  <si>
+    <t>입어봐도 될까요?</t>
+  </si>
+  <si>
+    <t>How do you know?</t>
+  </si>
+  <si>
+    <t>어떻게 아니?</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1671,6 +1770,294 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
+    <row r="13" ht="21.25" customHeight="1">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" ht="21.25" customHeight="1">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" ht="21.25" customHeight="1">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" ht="21.25" customHeight="1">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" ht="21.25" customHeight="1">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" ht="21.25" customHeight="1">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" ht="21.25" customHeight="1">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" ht="21.25" customHeight="1">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" ht="21.25" customHeight="1">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" ht="21.25" customHeight="1">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" ht="21.25" customHeight="1">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" ht="21.25" customHeight="1">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" ht="21.25" customHeight="1">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" ht="21.25" customHeight="1">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="21.25" customHeight="1">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" ht="21.25" customHeight="1">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
